--- a/Datos/Database by set/Set with text box/Xlsx sets/Legacy Championship (OLGC).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Legacy Championship (OLGC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,350 +444,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Badlands</t>
+          <t>('Badlands', ['Land — Swamp Mountain', '({T}: Add {B} or {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land — Swamp Mountain</t>
+          <t>('Bayou', ['Land — Swamp Forest', '({T}: Add {B} or {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>({T}: Add {B} or {R}.)</t>
+          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bayou</t>
+          <t>('City of Traitors', ['Land', 'When you play another land, sacrifice City of Traitors.', '{T}: Add {C}{C}.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Land — Swamp Forest</t>
+          <t>('Force of Will', ['{3}{U}{U}', 'Instant', 'You may pay 1 life and exile a blue card from your hand rather than pay this spell’s mana cost.', 'Counter target spell.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>({T}: Add {B} or {G}.)</t>
+          <t>("Gaea's Cradle", ['Legendary Land', '{T}: Add {G} for each creature you control.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
+          <t>('Plateau', ['Land — Mountain Plains', '({T}: Add {R} or {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{U}</t>
+          <t>('Savannah', ['Land — Forest Plains', '({T}: Add {G} or {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Scrubland', ['Land — Plains Swamp', '({T}: Add {W} or {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Draw three cards, then put two cards from your hand on top of your library in any order.</t>
+          <t>('Taiga', ['Land — Mountain Forest', '({T}: Add {R} or {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>City of Traitors</t>
+          <t>('Tropical Island', ['Land — Forest Island', '({T}: Add {G} or {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Tundra', ['Land — Plains Island', '({T}: Add {W} or {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>When you play another land, sacrifice City of Traitors.</t>
+          <t>('Underground Sea', ['Land — Island Swamp', '({T}: Add {U} or {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{T}: Add {C}{C}.</t>
+          <t>('Volcanic Island', ['Land — Island Mountain', '({T}: Add {U} or {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Force of Will</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>You may pay 1 life and exile a blue card from your hand rather than pay this spell’s mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Gaea's Cradle</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Legendary Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{T}: Add {G} for each creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Plateau</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Land — Mountain Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>({T}: Add {R} or {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Land — Forest Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>({T}: Add {G} or {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Scrubland</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Land — Plains Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>({T}: Add {W} or {B}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Land — Mountain Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>({T}: Add {R} or {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tropical Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Land — Forest Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>({T}: Add {G} or {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tundra</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Land — Plains Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>({T}: Add {W} or {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Underground Sea</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Land — Island Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>({T}: Add {U} or {B}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Volcanic Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Land — Island Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>({T}: Add {U} or {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Wasteland</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Wasteland: Destroy target nonbasic land.</t>
+          <t>('Wasteland', ['Land', '{T}: Add {C}.', '{T}, Sacrifice Wasteland: Destroy target nonbasic land.'])</t>
         </is>
       </c>
     </row>
